--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.438</v>
+        <v>16.548</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.027</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.002</v>
+        <v>14.854</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.021</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.802</v>
+        <v>7.401</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.00700889316105</v>
+        <v>4.307840240398988</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.00700892078263</v>
+        <v>15.01932883425937</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.00700891424156</v>
+        <v>13.12976806749651</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.00700891857412</v>
+        <v>13.80624245063319</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.00700892682942</v>
+        <v>13.50062249212126</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.00700895581196</v>
+        <v>24.76604518697052</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.00700890680827</v>
+        <v>-0.118409399124527</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.00700893587482</v>
+        <v>20.49767012024301</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.00700893061667</v>
+        <v>31.80567722667053</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.00700893514937</v>
+        <v>31.34184141802762</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.00700894396166</v>
+        <v>12.19755127368462</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.00700897456375</v>
+        <v>36.7654497447382</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.00700890946273</v>
+        <v>-4.012874558911367</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.007008938446</v>
+        <v>16.71120270462164</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.00700893338837</v>
+        <v>29.09280222041053</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.00700893792117</v>
+        <v>29.865279448225</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.00700894664446</v>
+        <v>6.571979277728872</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.00700897715743</v>
+        <v>30.45784606356334</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.00700890176524</v>
+        <v>-5.403010465307062</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.00700892987161</v>
+        <v>14.2078987319357</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.00700892385126</v>
+        <v>23.34223110291463</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.0070089283142</v>
+        <v>25.42815081880185</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.00700893643836</v>
+        <v>7.007165360103226</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.00700896596796</v>
+        <v>27.4208070352285</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.00700894753943</v>
+        <v>21.89307274015512</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.00700895459846</v>
+        <v>26.2910062462908</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.00700896589696</v>
+        <v>9.356783153361622</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.00700899564312</v>
+        <v>24.31740458619853</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.00700898689166</v>
+        <v>27.33734256556517</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.00700899453387</v>
+        <v>33.1285090825045</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.00700896745041</v>
+        <v>46.62693291509353</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.0070089748269</v>
+        <v>50.84457590487513</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.00700898514544</v>
+        <v>14.32263397656836</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.00700901658296</v>
+        <v>44.9305262321833</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.00700900891768</v>
+        <v>62.87914026042875</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.00700901684749</v>
+        <v>66.40053888902611</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.00700897020241</v>
+        <v>39.5845799410728</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.00700897759394</v>
+        <v>46.28342856364684</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.00700898790866</v>
+        <v>9.761724054910633</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.00700901927472</v>
+        <v>41.26420078639255</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.0070090117426</v>
+        <v>58.63045338770891</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.00700901966665</v>
+        <v>63.85494293061448</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.00700895795351</v>
+        <v>30.61164799350916</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.00700896523496</v>
+        <v>38.60526141065555</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.00700897708481</v>
+        <v>11.0052575926405</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.00700900746014</v>
+        <v>39.94054997931273</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.00700899891706</v>
+        <v>51.58757518204022</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.00700900673992</v>
+        <v>59.34217454497234</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.00700890028858</v>
+        <v>10.73185485210448</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.00700892794623</v>
+        <v>37.87267531274168</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.0070089202424</v>
+        <v>36.27815406981021</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.00700892440024</v>
+        <v>37.61680281033313</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.00700892876813</v>
+        <v>9.668133210240509</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.00700895781111</v>
+        <v>30.68419100655782</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.00700891298548</v>
+        <v>6.168800405957196</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.00700894206707</v>
+        <v>42.68254445274172</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.00700893548031</v>
+        <v>52.15726573477361</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.00700893982229</v>
+        <v>52.05559143340487</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.00700894467875</v>
+        <v>8.336570698173645</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.00700897531212</v>
+        <v>41.95286476519877</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.00700891534769</v>
+        <v>3.19390599238114</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.00700894433716</v>
+        <v>39.39547832618014</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.00700893794737</v>
+        <v>50.35302876024141</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.00700894228594</v>
+        <v>51.3839997770425</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.00700894710639</v>
+        <v>3.499474652927574</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.00700897764581</v>
+        <v>36.04550069834691</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.00700890801195</v>
+        <v>3.226155179575937</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.00700893612767</v>
+        <v>38.15967590363483</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.0070089289018</v>
+        <v>46.84592879309941</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.00700893316348</v>
+        <v>49.49919114707852</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.00700893743519</v>
+        <v>2.10632790299795</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.00700896700771</v>
+        <v>30.85440178795774</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.0070089486705</v>
+        <v>32.24831641808434</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.0070089552286</v>
+        <v>35.92409513382755</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.00700896684354</v>
+        <v>6.711240282699091</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.0070089965953</v>
+        <v>32.08504246804137</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.00700898711084</v>
+        <v>35.2855277035197</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.00700899428001</v>
+        <v>41.26062002978222</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.00700896722609</v>
+        <v>53.61534171804378</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.00700897407271</v>
+        <v>56.73852118756152</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.00700898482766</v>
+        <v>9.595651786376223</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.00700901624407</v>
+        <v>49.93340476190838</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.00700900776107</v>
+        <v>65.34136908048143</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.00700901518023</v>
+        <v>68.48675117814713</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.00700896971626</v>
+        <v>47.16888551230171</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.0070089765698</v>
+        <v>52.52710443403399</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.00700898729766</v>
+        <v>5.52191075707664</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.00700901863744</v>
+        <v>46.29045002199156</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.0070090102853</v>
+        <v>61.40994594513496</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.00700901769148</v>
+        <v>65.99602322032078</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.00700895810349</v>
+        <v>36.96372420080995</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.00700896483617</v>
+        <v>43.70395634432593</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.00700897695298</v>
+        <v>6.189537612979105</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.00700900731163</v>
+        <v>43.86758129182464</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.00700899801907</v>
+        <v>54.62511793063268</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.0070090053239</v>
+        <v>61.88780676151002</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.00700889807972</v>
+        <v>10.30070347095396</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.00700892568296</v>
+        <v>34.78188676742672</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.00700891821987</v>
+        <v>35.512082894088</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.00700892232577</v>
+        <v>35.58269658142076</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.00700892846854</v>
+        <v>11.62888710132816</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.00700895757764</v>
+        <v>34.10030277886962</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.00700891083005</v>
+        <v>8.058943466235498</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.00700893986088</v>
+        <v>42.28060469134942</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.00700893351978</v>
+        <v>54.36600055248091</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.00700893780878</v>
+        <v>53.02874724246125</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.00700894446503</v>
+        <v>11.56901287455285</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.00700897516659</v>
+        <v>46.96703715083042</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.00700891323141</v>
+        <v>5.411704363560499</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.00700894217237</v>
+        <v>39.65755207746009</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.00700893602279</v>
+        <v>53.23805089484722</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.00700894030883</v>
+        <v>52.90682730129323</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.00700894690991</v>
+        <v>7.786774127818077</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.007008977518</v>
+        <v>42.50457022494866</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.00700890587051</v>
+        <v>4.908153560964596</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.00700893393789</v>
+        <v>38.07292750406236</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.00700892694177</v>
+        <v>49.45319688102602</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.00700893115118</v>
+        <v>50.59642493079028</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.00700893718156</v>
+        <v>6.910049353317202</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.00700896682388</v>
+        <v>38.12672283044126</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.00700894874691</v>
+        <v>37.87219391324892</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.00700895523934</v>
+        <v>39.57536301504708</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.00700896673203</v>
+        <v>7.256333280943039</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.00700899654543</v>
+        <v>33.84636372693809</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.0070089873014</v>
+        <v>40.43654799128643</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.00700899441186</v>
+        <v>44.15795742667897</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.00700896741353</v>
+        <v>61.18305335973253</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.00700897419026</v>
+        <v>62.30807545021782</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.00700898482353</v>
+        <v>11.27642892385943</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.00700901630164</v>
+        <v>53.18276373548515</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.00700900808231</v>
+        <v>72.37556109051337</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.00700901544225</v>
+        <v>73.28890700306923</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.00700896992028</v>
+        <v>56.29824065626213</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.00700897670304</v>
+        <v>59.44941623751176</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.00700898731008</v>
+        <v>7.709840590045438</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.00700901871267</v>
+        <v>50.44027023083495</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.00700901062236</v>
+        <v>69.44234969920413</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.00700901796917</v>
+        <v>71.61458736829097</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.00700895823674</v>
+        <v>46.85810424195951</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.00700896489854</v>
+        <v>51.16539217843481</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.00700897690121</v>
+        <v>8.65086430207645</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.00700900732745</v>
+        <v>48.6988216798609</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.00700899827763</v>
+        <v>63.25917349136874</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.00700900552104</v>
+        <v>67.8072197808213</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.00700889167283</v>
+        <v>7.571024424537086</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.00700891866301</v>
+        <v>16.03845234763793</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.00700891225737</v>
+        <v>15.80029089291701</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.00700891647509</v>
+        <v>16.6652056323163</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.00700892412159</v>
+        <v>14.47076331743818</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.00700895249735</v>
+        <v>23.60006648419536</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.00700890502914</v>
+        <v>3.607356352602402</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.00700893343167</v>
+        <v>21.71306322177786</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.00700892827858</v>
+        <v>33.81363500950176</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.00700893269333</v>
+        <v>33.68279811552335</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.0070089408793</v>
+        <v>14.56552865521984</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.00700897083696</v>
+        <v>36.64042621981607</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.00700890764695</v>
+        <v>0.1036945943520138</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.00700893596837</v>
+        <v>18.3043910697405</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.00700893101613</v>
+        <v>31.1947281259719</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.0070089354298</v>
+        <v>32.22805896408559</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.00700894351854</v>
+        <v>9.09783019322704</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.007008973389</v>
+        <v>30.48929988365015</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.00700890012093</v>
+        <v>-1.19316539338212</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.00700892758477</v>
+        <v>15.88011788279801</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.00700892170166</v>
+        <v>25.83379242792419</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.00700892604544</v>
+        <v>28.04159721069649</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.00700893350111</v>
+        <v>8.291994108923333</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.0070089624105</v>
+        <v>26.24040563997803</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.00700894425522</v>
+        <v>19.394320676169</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.0070089511172</v>
+        <v>24.18517265868408</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.00700896292456</v>
+        <v>9.615815824281945</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.00700899206483</v>
+        <v>21.8311166339118</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.00700898344431</v>
+        <v>24.58267070386575</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.00700899088086</v>
+        <v>30.42809760213852</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.00700896373009</v>
+        <v>44.51427426867475</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.00700897090084</v>
+        <v>49.23836728498206</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.0070089817835</v>
+        <v>16.5014800516376</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.00700901257769</v>
+        <v>43.81075029526009</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.00700900503619</v>
+        <v>60.81652079319969</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.0070090127513</v>
+        <v>64.61169862938397</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.00700896644251</v>
+        <v>37.58850098851924</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.00700897362645</v>
+        <v>44.63504808847497</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.00700898451217</v>
+        <v>12.05542075398643</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.0070090152355</v>
+        <v>40.13346261053211</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.00700900783146</v>
+        <v>56.41407275605864</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.00700901553969</v>
+        <v>61.81272384684206</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.00700895443669</v>
+        <v>27.66701753548972</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.00700896151264</v>
+        <v>35.81112104734867</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.00700897391107</v>
+        <v>11.4734638549189</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.00700900366375</v>
+        <v>37.0523422059734</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.00700899526985</v>
+        <v>47.87743154681277</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.00700900288114</v>
+        <v>55.55440239730411</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.00700889982792</v>
+        <v>11.08233059429256</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.00700892738259</v>
+        <v>33.91048189879842</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.00700892075446</v>
+        <v>34.24790265111227</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.00700892504216</v>
+        <v>34.68277787835022</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.00700893274557</v>
+        <v>16.06200652478694</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.00700896161191</v>
+        <v>36.45537027941192</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.00700891342484</v>
+        <v>10.1138763725014</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.00700894240957</v>
+        <v>43.03395285644799</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.00700893704865</v>
+        <v>56.18355028371272</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.00700894153004</v>
+        <v>55.41901763501414</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.00700894969057</v>
+        <v>16.55963064778428</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.00700898015022</v>
+        <v>50.21790668565249</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.00700891600813</v>
+        <v>8.49725764852149</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.00700894490957</v>
+        <v>41.67116140705913</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.00700893975545</v>
+        <v>56.237118545732</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.00700894423463</v>
+        <v>56.55487997264154</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.00700895229246</v>
+        <v>12.82197096391188</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.00700898266457</v>
+        <v>46.01786595727427</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.00700890840013</v>
+        <v>7.911799406115911</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.00700893643678</v>
+        <v>40.17673612922895</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.00700893034322</v>
+        <v>51.72665865128204</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.00700893475254</v>
+        <v>53.27544418700982</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.00700894222152</v>
+        <v>13.33816017528954</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.00700897163103</v>
+        <v>43.41445358842309</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.00700895356571</v>
+        <v>40.47308179000004</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.00700896045169</v>
+        <v>42.29256694855116</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.0070089702975</v>
+        <v>8.734688634728247</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.00700899986743</v>
+        <v>31.29943005797324</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.00700899132299</v>
+        <v>37.96296084410733</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.00700899882192</v>
+        <v>42.14168714705451</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.00700897326317</v>
+        <v>66.91463856206346</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.00700898045085</v>
+        <v>68.31988550808867</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.00700898923864</v>
+        <v>13.09885188513876</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.00700902047176</v>
+        <v>51.1229162389894</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.00700901301744</v>
+        <v>72.51999714373666</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.00700902078912</v>
+        <v>74.18461761360845</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.00700897593861</v>
+        <v>62.35178418626523</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.00700899191646</v>
+        <v>9.579027060363533</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.007009023077</v>
+        <v>48.555989603935</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.00700901576051</v>
+        <v>69.74599038190496</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.0070090235231</v>
+        <v>72.83890905477828</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.00700896385888</v>
+        <v>53.67748690964913</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.00700897094771</v>
+        <v>58.48685973153277</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.00700898130038</v>
+        <v>12.58533174355816</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.00700901148759</v>
+        <v>49.36652037637264</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.00700900317378</v>
+        <v>64.91744034982557</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.00700901083837</v>
+        <v>70.46346022328426</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.00700890938019</v>
+        <v>7.907311618464206</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.00700893435035</v>
+        <v>37.95742196658092</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.00700892780312</v>
+        <v>37.71898124789024</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.00700893141984</v>
+        <v>37.67006653144958</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.00700893792544</v>
+        <v>11.70256772885736</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.00700896421288</v>
+        <v>40.32073276230237</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.00700892100764</v>
+        <v>4.468763300241147</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.00700894724854</v>
+        <v>42.89591366108897</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.00700894176989</v>
+        <v>53.7028665873123</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.00700894554245</v>
+        <v>52.20885213138639</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.00700895234446</v>
+        <v>10.62675758122895</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.00700898005033</v>
+        <v>50.77721005161136</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.00700892312741</v>
+        <v>2.635074320716797</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.00700894928662</v>
+        <v>41.18110652622516</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.00700894399121</v>
+        <v>53.76253337231725</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.00700894775828</v>
+        <v>53.0771057178148</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.00700895447221</v>
+        <v>6.964000992988073</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.00700898209364</v>
+        <v>46.61673955764098</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.00700891650197</v>
+        <v>4.582845862343856</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.00700894188672</v>
+        <v>42.86387196600356</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.00700893581188</v>
+        <v>52.6426497796913</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.00700893951695</v>
+        <v>53.42512866075379</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.00700894576147</v>
+        <v>7.25907642279256</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.00700897252511</v>
+        <v>44.30141957202598</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.00700895647416</v>
+        <v>42.76291967309498</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.0070089622747</v>
+        <v>44.05030702071869</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.00700897039647</v>
+        <v>7.266669140596342</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.00700899725443</v>
+        <v>36.2032724061937</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.00700898914301</v>
+        <v>39.8608483468261</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.00700899549398</v>
+        <v>43.78854079731115</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.00700897330603</v>
+        <v>63.49298964788989</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.00700897935224</v>
+        <v>64.04552262947132</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.00700898658149</v>
+        <v>9.995722794253284</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.00700900776257</v>
+        <v>67.99273394070448</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.00700901432757</v>
+        <v>69.1963615519756</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.00700897548737</v>
+        <v>59.03772555040754</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.0070089815373</v>
+        <v>61.37996629503358</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.00700898877348</v>
+        <v>6.961502533687053</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.00700901704451</v>
+        <v>50.14362333543369</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.00700901000085</v>
+        <v>65.73626825227313</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.00700901655287</v>
+        <v>67.96390877391852</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.00700896501883</v>
+        <v>51.29407725968444</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.0070089709688</v>
+        <v>54.83266301626314</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.00700897955395</v>
+        <v>9.67779668197625</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.00700900695596</v>
+        <v>51.21211389749016</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.00700899904011</v>
+        <v>62.00423226045221</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.00700900550814</v>
+        <v>66.51794621269103</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.00700889367905</v>
+        <v>2.770473427401789</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.00700891806398</v>
+        <v>10.64862641893992</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.00700891217631</v>
+        <v>12.51744916610946</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.00700891579535</v>
+        <v>13.16135355392371</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.0070089240748</v>
+        <v>10.921990149835</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.0070089498951</v>
+        <v>23.84755692374361</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.00700890523061</v>
+        <v>-2.984891438770976</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.00700893088813</v>
+        <v>13.53304871192123</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.00700892607747</v>
+        <v>26.48705116649677</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.00700892987106</v>
+        <v>26.06100894718008</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.0070089387681</v>
+        <v>10.11824582154932</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.0070089660231</v>
+        <v>34.89776730753153</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.00700890748789</v>
+        <v>-7.197213076878739</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.00700893306494</v>
+        <v>9.158205872178009</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.0070089284199</v>
+        <v>23.37522756631894</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.0070089322154</v>
+        <v>23.95325428967114</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.00700894105379</v>
+        <v>5.606034546879652</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.00700896822326</v>
+        <v>29.51855593832065</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.00700890079298</v>
+        <v>-7.827472749447452</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.00700892559176</v>
+        <v>7.61271555375308</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.00700892012086</v>
+        <v>18.88150191658832</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.00700892384659</v>
+        <v>20.68394077499591</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.00700893211019</v>
+        <v>6.07684423741383</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.00700895840696</v>
+        <v>26.76464519517609</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.00700894249493</v>
+        <v>22.84491703096484</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.00700894844299</v>
+        <v>26.61276427798971</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.00700895966011</v>
+        <v>6.773527487155839</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.00700898615596</v>
+        <v>23.99437728629921</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.00700897836684</v>
+        <v>28.80087794122615</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.00700898484818</v>
+        <v>33.09070324341962</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.00700895962821</v>
+        <v>43.67350077069371</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.00700896585091</v>
+        <v>47.29575930612167</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.00700897633707</v>
+        <v>12.70796053330916</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.00700900433387</v>
+        <v>43.97903177137607</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.00700899748708</v>
+        <v>60.70899717157299</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.0070090042159</v>
+        <v>62.93045763266893</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.00700896196218</v>
+        <v>37.72564225015707</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.00700896819766</v>
+        <v>43.49539910526569</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.00700897868728</v>
+        <v>9.687639038769289</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.00700900661809</v>
+        <v>41.60386993750497</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.00700899987583</v>
+        <v>57.95398940848526</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.00700900659988</v>
+        <v>61.6010638097065</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.00700895121557</v>
+        <v>30.31000091844153</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.00700895734215</v>
+        <v>37.06577489875026</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.00700896913635</v>
+        <v>10.64320598512132</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.00700899619111</v>
+        <v>40.29206051556964</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.00700898855225</v>
+        <v>52.15960367212963</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.00700899517682</v>
+        <v>57.84656037573893</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.00700889037741</v>
+        <v>-0.5836732356890195</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.0070089175094</v>
+        <v>6.362456721124151</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.00700891070917</v>
+        <v>5.62318719260464</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.007008914885</v>
+        <v>7.376734110729224</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.00700892225189</v>
+        <v>1.71226044057989</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.0070089507222</v>
+        <v>6.230967759782203</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.00700890339795</v>
+        <v>-6.126786752673219</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.007008931939</v>
+        <v>10.06885658891785</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.00700892636784</v>
+        <v>21.20188399820273</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.00700893073645</v>
+        <v>21.97662539978354</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.00700893856773</v>
+        <v>-3.075663775950648</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.00700896861121</v>
+        <v>13.9312848369324</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.00700890598439</v>
+        <v>-8.880380218399672</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.00700893444126</v>
+        <v>7.390256152783888</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.00700892906746</v>
+        <v>19.4129202719817</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.0070089334364</v>
+        <v>21.34971160212618</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.00700894117882</v>
+        <v>-7.595566923303686</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.00700897113311</v>
+        <v>8.724139021374995</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.00700889865262</v>
+        <v>-11.01214712191104</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.00700892625194</v>
+        <v>4.425596056817252</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.00700891995281</v>
+        <v>13.67689655776346</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.00700892425349</v>
+        <v>16.79490553738243</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.00700893140986</v>
+        <v>-7.838112061149999</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.00700896040817</v>
+        <v>5.365039958440796</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.00700894244949</v>
+        <v>6.93273419450097</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.00700894922546</v>
+        <v>11.48933099401675</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.007008960889</v>
+        <v>-0.7475600135082416</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.00700899008681</v>
+        <v>6.975133988986244</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.00700898136898</v>
+        <v>10.92980791434346</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.00700898879307</v>
+        <v>19.02720118484559</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.00700896147178</v>
+        <v>26.20753544858395</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.00700896855291</v>
+        <v>30.74568464451945</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.00700897931098</v>
+        <v>0.07506092893883221</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.00700901015386</v>
+        <v>22.54089523045199</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.00700900249476</v>
+        <v>39.94404460012876</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.00700901019766</v>
+        <v>46.06481716313948</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.00700896414903</v>
+        <v>20.20897904264339</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.0070089712431</v>
+        <v>27.04726567427999</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.00700898200434</v>
+        <v>-3.777292548403139</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.0070090127734</v>
+        <v>19.46757745661341</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.00700900524381</v>
+        <v>36.15843674742599</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.00700901294147</v>
+        <v>43.8777611974839</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.00700895238234</v>
+        <v>11.33558574980661</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.00700895936387</v>
+        <v>19.16683110166477</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.00700897164453</v>
+        <v>-2.247338209331481</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.00700900144581</v>
+        <v>18.76284082253022</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.00700899291797</v>
+        <v>30.19689779356634</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.00700900051847</v>
+        <v>40.19300522950513</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.00700891229518</v>
+        <v>8.837739154962001</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.00700893861491</v>
+        <v>38.19509812330502</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.00700893228264</v>
+        <v>41.52701276595842</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.00700893618564</v>
+        <v>41.72874189031962</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.00700893856421</v>
+        <v>5.385656434157703</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.00700896615673</v>
+        <v>28.3819672865575</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.00700892474029</v>
+        <v>5.870586296698235</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.00700895240724</v>
+        <v>44.36756837192786</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.00700894717564</v>
+        <v>59.47368468841739</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.00700895125138</v>
+        <v>58.20244613272781</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.00700895400804</v>
+        <v>4.982810118322782</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.00700898310444</v>
+        <v>40.16947656555452</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.00700892691527</v>
+        <v>2.702523759644322</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.00700895449741</v>
+        <v>41.4707450771665</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.00700894943733</v>
+        <v>58.27076710190057</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.00700895350927</v>
+        <v>57.89636350096057</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.00700895626132</v>
+        <v>0.9434857781603725</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.00700898526982</v>
+        <v>35.72724716748433</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.00700891966822</v>
+        <v>1.04359910530308</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.00700894643118</v>
+        <v>38.88681561993937</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.00700894054765</v>
+        <v>53.20609777901876</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.00700894454607</v>
+        <v>54.23179611381178</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.00700894685436</v>
+        <v>-1.11353783020877</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.00700897495647</v>
+        <v>30.54084142615925</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.00700895850031</v>
+        <v>31.38914548175714</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.00700896464221</v>
+        <v>32.72859237343704</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.0070089737256</v>
+        <v>5.318528603425346</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.0070090019495</v>
+        <v>31.4266164898785</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.00700899377025</v>
+        <v>37.20194459721203</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.00700900050628</v>
+        <v>40.92750535982449</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.00700897650171</v>
+        <v>53.98246063167814</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.00700898291043</v>
+        <v>54.63388309507682</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.00700899103089</v>
+        <v>8.677592920983308</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.00700902082482</v>
+        <v>49.16626890298733</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.00700901363537</v>
+        <v>67.48387114109548</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.00700902060254</v>
+        <v>68.37512801142414</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.00700897880572</v>
+        <v>49.16626855081576</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.00700898522106</v>
+        <v>51.7466650636425</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.00700899332574</v>
+        <v>5.697785058755986</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.00700902304963</v>
+        <v>47.23941632648047</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.00700901597346</v>
+        <v>65.46722078543579</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.00700902292759</v>
+        <v>67.48567781940773</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.00700896752587</v>
+        <v>38.4838372435016</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.00700897382989</v>
+        <v>42.28869405766709</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.00700898336541</v>
+        <v>6.718896975937067</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.00700901217425</v>
+        <v>45.91065453606746</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.00700900417398</v>
+        <v>59.5446496348789</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.00700901103329</v>
+        <v>63.93357831606612</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.00700888689866</v>
+        <v>3.534666044115987</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.00700891105483</v>
+        <v>7.757021703570789</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.00700890433916</v>
+        <v>6.045118079179986</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.00700890800024</v>
+        <v>7.56623364179147</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.00700891590914</v>
+        <v>7.357823245226005</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.00700894144796</v>
+        <v>12.66128763798609</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.0070088981808</v>
+        <v>-0.03504158351721287</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.00700892361031</v>
+        <v>12.93547950558669</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.0070089179192</v>
+        <v>20.97280597953903</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.0070089217602</v>
+        <v>21.62188891092612</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.0070089303426</v>
+        <v>8.47294593828666</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.00700895731459</v>
+        <v>25.54177338020617</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.00700890047866</v>
+        <v>-4.307153556202849</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.00700892582512</v>
+        <v>8.075227585705214</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.00700892030849</v>
+        <v>16.97220778099342</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.00700892415533</v>
+        <v>18.95789050482897</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.00700893265692</v>
+        <v>2.249153643693688</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.00700895953937</v>
+        <v>17.91273385502683</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.00700889392297</v>
+        <v>-6.001998237523136</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.00700891848001</v>
+        <v>4.95461937527995</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.00700891217343</v>
+        <v>11.70668285828076</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.00700891595219</v>
+        <v>14.9151219868264</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.00700892377958</v>
+        <v>-0.9262603869010135</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.00700894977601</v>
+        <v>10.91358177158532</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.00700893325707</v>
+        <v>9.922439588230882</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.00700893924431</v>
+        <v>15.23201107504343</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.00700895190197</v>
+        <v>6.622698779667132</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.00700897810313</v>
+        <v>14.87525636272247</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.00700896963019</v>
+        <v>15.95298177030691</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.00700897618416</v>
+        <v>23.47435483111858</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.00700895007611</v>
+        <v>31.43214753488569</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.00700895634936</v>
+        <v>36.85330500397877</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.00700896839287</v>
+        <v>15.10789256285966</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.007008996092</v>
+        <v>37.30340511650067</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.0070089885101</v>
+        <v>49.35958890619662</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.00700899532751</v>
+        <v>55.13740609542999</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.0070089524395</v>
+        <v>22.92847788362544</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.00700895873143</v>
+        <v>30.91114477655167</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.00700897078006</v>
+        <v>10.06489761090149</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.00700899840732</v>
+        <v>32.29853315743061</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.00700899093574</v>
+        <v>43.55645105187975</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.0070089977549</v>
+        <v>51.26260752726486</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.00700894178244</v>
+        <v>11.80155731640502</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.0070089479627</v>
+        <v>20.72743128893276</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.00700896124477</v>
+        <v>6.474334629845714</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.00700898798103</v>
+        <v>25.7189365515759</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.00700897964209</v>
+        <v>32.65538525532919</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.00700898635928</v>
+        <v>42.45261669704202</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.0070088930891</v>
+        <v>-8.469840630000917</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.00700891915796</v>
+        <v>5.674678045218496</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.00700891171922</v>
+        <v>4.753080210861061</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.00700891553922</v>
+        <v>5.003857954574364</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.00700892523657</v>
+        <v>10.86521541245953</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.00700895285371</v>
+        <v>28.33864696688487</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.0070089048741</v>
+        <v>-13.19700313585224</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.00700893228963</v>
+        <v>9.838543111220893</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.00700892591572</v>
+        <v>18.94890352395909</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.00700892990523</v>
+        <v>17.94573724290188</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.00700894019179</v>
+        <v>9.016637172717914</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.00700896931733</v>
+        <v>38.58521891115964</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.00700890721236</v>
+        <v>-14.57391748398916</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.00700893454265</v>
+        <v>8.360257301393389</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.00700892836038</v>
+        <v>18.71810507009072</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.00700893234645</v>
+        <v>18.70365773074088</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.00700894253252</v>
+        <v>6.044023240388881</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.00700897157009</v>
+        <v>34.85697779748335</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.00700890049412</v>
+        <v>-13.41823383970303</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.00700892699963</v>
+        <v>8.733523805776795</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.00700892002079</v>
+        <v>17.24688808138503</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.00700892393658</v>
+        <v>18.6185622750694</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.00700893348175</v>
+        <v>5.936822247954222</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.00700896160373</v>
+        <v>31.51951842565596</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.0070089442703</v>
+        <v>30.53756969768906</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.00700895041224</v>
+        <v>32.3861342226504</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.00700896184795</v>
+        <v>8.58820920004429</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.00700899015181</v>
+        <v>30.97470261464763</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.00700898115384</v>
+        <v>34.38264247048644</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.00700898788893</v>
+        <v>38.41957114040216</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.00700896175012</v>
+        <v>50.16453481463825</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.00700896815723</v>
+        <v>51.45818625350012</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.00700897883388</v>
+        <v>11.68051657141091</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.00700900871725</v>
+        <v>48.43404816682457</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.00700900069336</v>
+        <v>63.5271756442857</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.00700900766238</v>
+        <v>64.91218465141864</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.00700896415249</v>
+        <v>45.98335693891857</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.00700897056317</v>
+        <v>49.19291669871721</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.00700898122525</v>
+        <v>8.983656990861178</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.00700901103654</v>
+        <v>46.37038912208016</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.00700900314016</v>
+        <v>61.24067377237161</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.00700901009568</v>
+        <v>63.82270740332193</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.00700895325759</v>
+        <v>38.19773886303769</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.00700895955459</v>
+        <v>42.5001018040993</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.0070089715099</v>
+        <v>10.23318681975015</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.00700900039249</v>
+        <v>45.23587486051053</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.00700899159147</v>
+        <v>56.06862920334007</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.00700899845036</v>
+        <v>60.8919601487228</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.00700888551652</v>
+        <v>7.254781754240422</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.00700891115702</v>
+        <v>13.57207063817156</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.00700890386348</v>
+        <v>13.60523246812919</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.00700890765142</v>
+        <v>14.7037069150454</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.00700891372416</v>
+        <v>4.52382358286896</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.00700894073457</v>
+        <v>8.569994003733342</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.00700889722881</v>
+        <v>1.444865975804088</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.00700892419606</v>
+        <v>16.19994609247805</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.00700891798714</v>
+        <v>26.23979906016591</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.00700892196193</v>
+        <v>26.4434600974016</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.00700892852818</v>
+        <v>0.9764215712737077</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.00700895702159</v>
+        <v>16.36222879683447</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.00700889960722</v>
+        <v>-1.529865453628126</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.00700892648856</v>
+        <v>12.9069287532332</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.00700892046939</v>
+        <v>24.01949380760678</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.00700892444474</v>
+        <v>25.32242934773058</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.00700893094147</v>
+        <v>-3.659929569856047</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.00700895934652</v>
+        <v>10.67881094378839</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.00700889279565</v>
+        <v>-3.853740514794172</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.00700891885815</v>
+        <v>9.698108227035394</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.00700891202425</v>
+        <v>18.54832006938802</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.00700891592001</v>
+        <v>21.06896521190639</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.00700892187256</v>
+        <v>-4.408700311931444</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.00700894937324</v>
+        <v>6.738155150314871</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.00700893187171</v>
+        <v>6.914520846664701</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.00700893801672</v>
+        <v>10.99716759698035</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.00700895288981</v>
+        <v>6.15661180958983</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.00700898070992</v>
+        <v>16.28425522553626</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.00700897172137</v>
+        <v>18.31931316273441</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.00700897839364</v>
+        <v>23.36614253680277</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.00700894917619</v>
+        <v>23.60227093939965</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.00700895561265</v>
+        <v>27.7706498285085</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.00700896988107</v>
+        <v>9.47265535791926</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.00700899925924</v>
+        <v>33.16070791900795</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.00700899126611</v>
+        <v>46.72262012759469</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.00700899819138</v>
+        <v>49.74025994780575</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.00700895165573</v>
+        <v>17.21161300894192</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.00700895810097</v>
+        <v>23.46336573708995</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.00700897233989</v>
+        <v>5.663154080326663</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.00700900164737</v>
+        <v>29.82848340779057</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.00700899378613</v>
+        <v>42.92884869152957</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.00700900070163</v>
+        <v>47.30942836392469</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.0070089407571</v>
+        <v>8.890159367695095</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.00700894707179</v>
+        <v>15.91823842969086</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.00700896253692</v>
+        <v>4.544691148796669</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.00700899092807</v>
+        <v>26.42695315473957</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.00700898214921</v>
+        <v>35.18114683915176</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.00700898895595</v>
+        <v>41.49727029429074</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.00700888123344</v>
+        <v>3.107983229285484</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.007008905469</v>
+        <v>4.19422754945386</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.00700889822874</v>
+        <v>1.730776159010365</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.00700890172985</v>
+        <v>1.823880357018368</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.00700890868821</v>
+        <v>3.015117891460957</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.0070089342876</v>
+        <v>3.037239690106968</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.00700889201446</v>
+        <v>-4.553962064121666</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.00700891750455</v>
+        <v>4.062399501623343</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.00700891128082</v>
+        <v>10.66794846950325</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.00700891494925</v>
+        <v>9.858047537855061</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.0070089224322</v>
+        <v>-3.345902748946667</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.00700894943617</v>
+        <v>6.969631262646871</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.0070088943289</v>
+        <v>-7.228520331880603</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.00700891973805</v>
+        <v>0.9645680695602543</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.00700891369841</v>
+        <v>8.454990863592212</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.00700891736644</v>
+        <v>8.663468689097236</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.007008924774</v>
+        <v>-7.688575902234597</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.00700895169405</v>
+        <v>1.52191762411098</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.00700888815134</v>
+        <v>-7.134640300259399</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.00700891278881</v>
+        <v>0.4870691926777191</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.00700890598284</v>
+        <v>6.33649248957612</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.00700890958189</v>
+        <v>7.713084411288222</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.00700891641858</v>
+        <v>-6.294800843588341</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.00700894248263</v>
+        <v>0.1466760219024792</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.00700892563229</v>
+        <v>-0.06076078425823184</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.00700893135151</v>
+        <v>1.376721253032876</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.00700894641334</v>
+        <v>5.837210583214542</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.00700897274487</v>
+        <v>11.24446983957512</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.00700896398683</v>
+        <v>12.73743973623555</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.00700897027526</v>
+        <v>15.66055588601681</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.00700894174163</v>
+        <v>11.99620205396894</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.00700894772442</v>
+        <v>13.36769078012177</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.00700896231971</v>
+        <v>6.787966238294068</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.00700899012591</v>
+        <v>24.50754912142974</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.00700898232632</v>
+        <v>36.86277030440979</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.00700898884704</v>
+        <v>37.78530334373131</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.00700894414881</v>
+        <v>5.851411045370728</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.00700895013941</v>
+        <v>9.170519755545751</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.00700896470843</v>
+        <v>3.068542862706167</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.00700899244676</v>
+        <v>21.08036852839778</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.00700898477669</v>
+        <v>32.94434338110621</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.00700899128735</v>
+        <v>35.14117398848856</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.00700893405665</v>
+        <v>0.8333284911173635</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.00700893993441</v>
+        <v>4.925293199015403</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.0070089555717</v>
+        <v>3.522924069903979</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.00700898244283</v>
+        <v>19.66197055055692</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.00700897388273</v>
+        <v>27.68395239837132</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.00700898029682</v>
+        <v>31.77538598946982</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.00700889326266</v>
+        <v>16.5037659131754</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.00700892069045</v>
+        <v>27.77222564463417</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.00700891390025</v>
+        <v>24.12876436752236</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.00700891821102</v>
+        <v>25.75906219618268</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.00700892394097</v>
+        <v>9.908287980307003</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.00700895266714</v>
+        <v>17.62450761215457</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.00700890691614</v>
+        <v>15.33201936811768</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.00700893577861</v>
+        <v>36.54334411838015</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.00700893026554</v>
+        <v>46.46134242831445</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.00700893477456</v>
+        <v>46.90603114864739</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.0070089409006</v>
+        <v>9.681355262759642</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.00700897122623</v>
+        <v>30.45614928994602</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.0070089095614</v>
+        <v>13.46679716213182</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.00700893833973</v>
+        <v>34.78800209124464</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.007008933033</v>
+        <v>45.89745949228234</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.00700893754301</v>
+        <v>47.55177571195081</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.00700894359479</v>
+        <v>6.234342948361395</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.00700897383194</v>
+        <v>26.40198827933324</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.00700890176456</v>
+        <v>6.675265928939492</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.00700892966763</v>
+        <v>26.70312757939922</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.00700892340638</v>
+        <v>33.87430752208425</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.0070089278507</v>
+        <v>36.93677851864486</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.00700893342789</v>
+        <v>3.151219615367211</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.00700896269469</v>
+        <v>19.9629160805575</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.0070089442104</v>
+        <v>12.67480399333346</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.00700895112016</v>
+        <v>15.34917537348767</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.0070089637593</v>
+        <v>10.9753041599926</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.00700899326941</v>
+        <v>23.23072790336461</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.00700898437495</v>
+        <v>23.20564824820491</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.00700899188877</v>
+        <v>28.01990605126554</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.00700896395437</v>
+        <v>38.46836652018722</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.00700897117328</v>
+        <v>40.8539687728252</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.00700898287185</v>
+        <v>17.45862483417748</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.00700901405531</v>
+        <v>45.2149808120652</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.00700900627602</v>
+        <v>60.49137632141036</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.00700901406853</v>
+        <v>62.89952203683682</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.00700896672774</v>
+        <v>33.92749869444391</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.00700897396126</v>
+        <v>38.68293990241575</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.00700898563543</v>
+        <v>14.90509116625407</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.0070090167477</v>
+        <v>43.60492145666981</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.00700900911077</v>
+        <v>58.5628833881802</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.00700901689728</v>
+        <v>62.57626157892027</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.00700895451777</v>
+        <v>20.88855564123021</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.00700896164533</v>
+        <v>26.98772296829022</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.00700897483164</v>
+        <v>11.99892611321768</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.0070090049646</v>
+        <v>38.14130875015002</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.0070089963013</v>
+        <v>46.61721378066406</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.00700900399258</v>
+        <v>53.21242702353172</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.00700889705962</v>
+        <v>15.17050694970327</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.0070089231059</v>
+        <v>36.65480787112026</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.00700891587044</v>
+        <v>37.3876424099121</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.00700891981556</v>
+        <v>38.88064650437962</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.00700892448933</v>
+        <v>9.204175962284509</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.0070089518802</v>
+        <v>25.75320172811546</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.0070089089943</v>
+        <v>11.50047503242699</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.00700893639009</v>
+        <v>41.83756172434043</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.00700893020879</v>
+        <v>53.0450664391032</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.00700893433467</v>
+        <v>53.30444569239778</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.00700893955532</v>
+        <v>8.615659749210508</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.00700896845512</v>
+        <v>37.15310221552384</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.00700891127159</v>
+        <v>8.284600150920355</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.00700893857992</v>
+        <v>38.25443316834455</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.0070089325864</v>
+        <v>50.57181818601394</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.00700893671164</v>
+        <v>52.04640309914734</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.00700894189793</v>
+        <v>3.914784777796314</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.00700897070827</v>
+        <v>31.32179524794786</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.00700890437774</v>
+        <v>8.12501453059383</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.00700893085675</v>
+        <v>37.0354313155803</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.00700892406466</v>
+        <v>47.02426993486539</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.00700892811585</v>
+        <v>49.94572470586662</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.00700893273467</v>
+        <v>2.307811373857184</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.00700896062427</v>
+        <v>26.12173345707129</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.00700894319504</v>
+        <v>26.36772725018848</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.00700894944634</v>
+        <v>29.60340021983398</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.00700896134946</v>
+        <v>4.864077219853474</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.00700898942955</v>
+        <v>25.82270750120872</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.00700898045853</v>
+        <v>29.54492916571849</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.00700898729833</v>
+        <v>35.26789894107974</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.00700896075955</v>
+        <v>47.20184125537919</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.00700896729268</v>
+        <v>49.99265263082752</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.00700897845482</v>
+        <v>8.838267227605389</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.00700900811447</v>
+        <v>44.13032108367428</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.00700900007926</v>
+        <v>59.45986430174379</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.00700900716829</v>
+        <v>62.60856911716955</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.00700896316061</v>
+        <v>40.71104415139207</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.00700896970366</v>
+        <v>45.78885733959412</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.00700898084221</v>
+        <v>4.494668356893783</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.0070090104285</v>
+        <v>40.07180740966</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.00700900251515</v>
+        <v>54.88653880363359</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.00700900959572</v>
+        <v>59.61096083787966</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.00700895214794</v>
+        <v>30.73137406376335</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.00700895857661</v>
+        <v>37.10082421364997</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.00700897100433</v>
+        <v>4.406040710947046</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.00700899965753</v>
+        <v>37.05403181000038</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.00700899085038</v>
+        <v>47.52008333430202</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.00700899783165</v>
+        <v>54.74837365174262</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.00700890098563</v>
+        <v>11.23338259058551</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.00700892971513</v>
+        <v>33.4462347395067</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.00700892294439</v>
+        <v>31.66392155246925</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.0070089274049</v>
+        <v>32.18301828190849</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.0070089330936</v>
+        <v>9.768280957495255</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.00700896314767</v>
+        <v>27.79838601806857</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.00700891506747</v>
+        <v>7.550619075643741</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.00700894528482</v>
+        <v>39.89402382264352</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.00700893982216</v>
+        <v>51.81422177593124</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.00700894448115</v>
+        <v>50.9371796319665</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.00700895062013</v>
+        <v>8.04274064464504</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.00700898233702</v>
+        <v>39.62205010135825</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.00700891768716</v>
+        <v>4.911697233764848</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.0070089478174</v>
+        <v>37.51779408652499</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.00700894255951</v>
+        <v>50.83669829524446</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.00700894721589</v>
+        <v>51.12600538497052</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.00700895329462</v>
+        <v>3.409113010346477</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.00700898492026</v>
+        <v>34.51114221769765</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.00700890971476</v>
+        <v>3.253017471605375</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.00700893894294</v>
+        <v>34.79862425728412</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.00700893271122</v>
+        <v>44.83092958736503</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.00700893729602</v>
+        <v>46.56814712819</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.0070089428425</v>
+        <v>3.246231053758287</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.00700897346218</v>
+        <v>30.90239423666335</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.00700895472336</v>
+        <v>26.73157254830751</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.00700896187207</v>
+        <v>29.22261169689877</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.00700897226328</v>
+        <v>5.637845883686449</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.00700900306538</v>
+        <v>26.68111214789788</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.00700899411075</v>
+        <v>30.47957825195373</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.00700900187557</v>
+        <v>35.18185057278674</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.00700897510517</v>
+        <v>51.73378363433129</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.00700898256695</v>
+        <v>53.688231709012</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.00700899187708</v>
+        <v>8.720135627194175</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.00700902441544</v>
+        <v>45.67677691126181</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.00700901657227</v>
+        <v>64.63795088063463</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.00700902461704</v>
+        <v>66.60657958999673</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.00700897784909</v>
+        <v>45.98199265246843</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.00700898532255</v>
+        <v>50.29252719234274</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.00700899462123</v>
+        <v>4.913286337798638</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.00700902708556</v>
+        <v>42.94089939854337</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.00700901937742</v>
+        <v>61.46032176783158</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.00700902741247</v>
+        <v>64.97099374857964</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.00700896530318</v>
+        <v>35.97431804299696</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.00700897266498</v>
+        <v>41.7476694051088</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.00700898356843</v>
+        <v>6.767100512875238</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.00700901501656</v>
+        <v>42.19027119329493</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.00700900627811</v>
+        <v>54.88740851722605</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.00700901421317</v>
+        <v>61.14188751231067</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.00700890029375</v>
+        <v>16.51653882173474</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.00700892748133</v>
+        <v>35.49946082903148</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.00700892119668</v>
+        <v>37.49022651498078</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.00700892544989</v>
+        <v>37.16466107122801</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.00700893245721</v>
+        <v>16.88917490761556</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.00700896086778</v>
+        <v>31.2989506007226</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.0070089138249</v>
+        <v>13.38801339679568</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.0070089424216</v>
+        <v>42.24836562077655</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.00700893741566</v>
+        <v>57.65209564246974</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.00700894186406</v>
+        <v>56.0895287117129</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.00700894930425</v>
+        <v>14.58458597290375</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.00700897928775</v>
+        <v>41.97644488132468</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.00700891640394</v>
+        <v>12.66977585084372</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.00700894492115</v>
+        <v>41.89835758019197</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.00700894011655</v>
+        <v>58.49933321767449</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.00700894456276</v>
+        <v>58.01452975564484</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.00700895190154</v>
+        <v>11.52109717127115</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.00700898180012</v>
+        <v>38.53495525477457</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.00700890879638</v>
+        <v>10.82805823128392</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.00700893646074</v>
+        <v>39.16452761923387</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.00700893070977</v>
+        <v>52.47044749280381</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.0070089350871</v>
+        <v>53.1923434510076</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.00700894186888</v>
+        <v>11.87817203012638</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.00700897081307</v>
+        <v>35.87205144423623</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.00700895302383</v>
+        <v>31.63033529945947</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.00700895988093</v>
+        <v>34.06983770544969</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.00700896994513</v>
+        <v>10.92250740435747</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.00700899907348</v>
+        <v>28.41756105614249</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.00700899073178</v>
+        <v>35.8626547825558</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.00700899817151</v>
+        <v>39.36519254954965</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.00700897260038</v>
+        <v>55.46301713615916</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.00700897976342</v>
+        <v>57.45898181682087</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.00700898884123</v>
+        <v>14.20558835171228</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.00700901960979</v>
+        <v>46.88475745869486</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.00700901234825</v>
+        <v>69.49469564755094</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.00700902006712</v>
+        <v>70.5181325242616</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.00700897527419</v>
+        <v>51.61356670191712</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.00700898244796</v>
+        <v>55.78906118654096</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.00700899152375</v>
+        <v>11.77764025033708</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.00700902222271</v>
+        <v>45.5343379477406</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.00700901509595</v>
+        <v>67.82864079459894</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.00700902280677</v>
+        <v>70.29451587799218</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.00700896325171</v>
+        <v>42.5844594974159</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.00700897031785</v>
+        <v>48.03508833248001</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.00700898091119</v>
+        <v>12.85621218655626</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.00700901064775</v>
+        <v>44.41299803960258</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.00700900253328</v>
+        <v>60.71826568680314</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.0070090101458</v>
+        <v>65.68856745590278</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.00700889579155</v>
+        <v>7.968853647896999</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.00700892360149</v>
+        <v>28.45029828096577</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.00700891632555</v>
+        <v>26.73637234682039</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.0070089205916</v>
+        <v>28.45590251488249</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.00700892559842</v>
+        <v>6.537702192746359</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.00700895483507</v>
+        <v>22.90215899763378</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.00700890907174</v>
+        <v>7.959145089538026</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.00700893834775</v>
+        <v>39.24887708062469</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.00700893223691</v>
+        <v>49.45616085886851</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.0070089366944</v>
+        <v>49.63381755311528</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.00700894214725</v>
+        <v>7.179471658509648</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.00700897301627</v>
+        <v>37.45738279978998</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.00700891159644</v>
+        <v>5.553339910987837</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.00700894078217</v>
+        <v>36.62748424585898</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.0070089348749</v>
+        <v>48.52286577042215</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.00700893933344</v>
+        <v>49.92672575938835</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.00700894472412</v>
+        <v>3.107373105366719</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.00700897549891</v>
+        <v>32.49426626785302</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.00700890396745</v>
+        <v>2.277694370063401</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.00700893224751</v>
+        <v>31.26661668077972</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.00700892547059</v>
+        <v>40.82068597055671</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.00700892986095</v>
+        <v>44.05689723705905</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.00700893468817</v>
+        <v>-0.0583905541797094</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.00700896446042</v>
+        <v>24.89612938064827</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.0070089460967</v>
+        <v>21.16005800083066</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.00700895281139</v>
+        <v>23.33849508086602</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.00700896437662</v>
+        <v>3.499484260994826</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.00700899431681</v>
+        <v>22.39429860285802</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.00700898509757</v>
+        <v>24.38265563231448</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.00700899246187</v>
+        <v>29.64319610367355</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.00700896537291</v>
+        <v>46.29705959139456</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.00700897238631</v>
+        <v>47.77340924951627</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.00700898305412</v>
+        <v>8.962659959840416</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.00700901470101</v>
+        <v>44.35825029328731</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.00700900649072</v>
+        <v>59.02861471740199</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.00700901412507</v>
+        <v>61.41651369704167</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.00700896801656</v>
+        <v>40.98210539779661</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.00700897504339</v>
+        <v>44.84813510280043</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.00700898568834</v>
+        <v>4.728141778149585</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.00700901725866</v>
+        <v>40.69903955362081</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.00700900917925</v>
+        <v>55.0860551789744</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.0070090168079</v>
+        <v>59.15907906339423</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.00700895597386</v>
+        <v>28.44258026296308</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.0070089628888</v>
+        <v>33.96932335975534</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.00700897500689</v>
+        <v>2.221185725030693</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.00700900556482</v>
+        <v>34.36510558035567</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.00700899653164</v>
+        <v>44.14841517974158</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.00700900406118</v>
+        <v>51.21851575949587</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.00700889184765</v>
+        <v>5.489146236826926</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.00700891684255</v>
+        <v>13.53837302858884</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.00700891062876</v>
+        <v>12.43596583877716</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.00700891443674</v>
+        <v>13.34883273672167</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.00700892285382</v>
+        <v>8.511536215957793</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.0070089491851</v>
+        <v>18.30372745352853</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.00700890401443</v>
+        <v>1.747317690494924</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.00700893032881</v>
+        <v>19.11271759377645</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.00700892525453</v>
+        <v>29.06119864842051</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.00700892923938</v>
+        <v>28.94130055824389</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.00700893824148</v>
+        <v>9.736224059419431</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.00700896605487</v>
+        <v>32.02975221197308</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.00700890646</v>
+        <v>-2.627921329236088</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.00700893269647</v>
+        <v>14.61851542008669</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.0070089278066</v>
+        <v>25.32394231104523</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.0070089317949</v>
+        <v>26.44346298065604</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.00700894070441</v>
+        <v>4.027388085311639</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.00700896843348</v>
+        <v>25.36488861057354</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.00700889959897</v>
+        <v>-2.676694109734314</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.00700892502791</v>
+        <v>13.29171039272554</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.00700891928906</v>
+        <v>21.82562120029295</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.00700892321998</v>
+        <v>24.41843321502729</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.0070089315159</v>
+        <v>4.624400221153468</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.0070089583377</v>
+        <v>22.39689795385808</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.00700894141867</v>
+        <v>15.55751923695666</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.0070089476988</v>
+        <v>19.70975588846498</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.00700895908799</v>
+        <v>5.679976195942881</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.00700898613223</v>
+        <v>17.84549817020129</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.00700897788405</v>
+        <v>18.62572228241658</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.00700898471833</v>
+        <v>24.38842658647784</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.00700895934064</v>
+        <v>40.00582646162242</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.00700896590339</v>
+        <v>44.05627846321825</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.00700897649309</v>
+        <v>13.60775719832183</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.00700900508863</v>
+        <v>40.58226528062307</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.00700899782266</v>
+        <v>54.22218032371774</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.00700900491323</v>
+        <v>57.8931589881194</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.00700896186763</v>
+        <v>32.56469242479089</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.00700896844748</v>
+        <v>39.09371875501846</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.00700897902471</v>
+        <v>8.700071376388244</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.00700900755345</v>
+        <v>36.26278899462265</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.00700900040991</v>
+        <v>49.12088248487922</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.00700900749872</v>
+        <v>54.57109477288331</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.00700895082012</v>
+        <v>24.7947367104905</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.00700895730726</v>
+        <v>32.77133261835591</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.00700896918864</v>
+        <v>7.816600926552393</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.0070089968007</v>
+        <v>32.51990652311213</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.00700898874613</v>
+        <v>40.50550566581629</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.00700899575019</v>
+        <v>48.63277616005242</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.00700889814661</v>
+        <v>4.30260456174484</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.00700892513385</v>
+        <v>18.50700203003435</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.00700891886672</v>
+        <v>18.72319467051845</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.00700892311225</v>
+        <v>19.65973969549051</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.00700893011908</v>
+        <v>6.490625438175442</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.00700895834563</v>
+        <v>16.98891291401855</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.00700891162964</v>
+        <v>2.321554826262243</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.0070089400222</v>
+        <v>26.48138147627604</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.00700893502746</v>
+        <v>39.79257210761616</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.0070089394708</v>
+        <v>39.62192313368929</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.00700894691272</v>
+        <v>5.066550545939609</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.00700897670965</v>
+        <v>28.63226141100133</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.00700891424515</v>
+        <v>2.402954597878242</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.0070089425604</v>
+        <v>26.97305707005162</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.00700893776376</v>
+        <v>41.27891088699489</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.00700894220601</v>
+        <v>42.22906561737456</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.00700894954172</v>
+        <v>2.526802130478018</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.00700897925546</v>
+        <v>25.74444690730695</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.00700890668289</v>
+        <v>-0.1836860925268766</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.00700893414809</v>
+        <v>23.34992758880138</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.00700892840437</v>
+        <v>34.46985322504236</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.00700893277784</v>
+        <v>36.62602869997505</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.00700893955568</v>
+        <v>2.483983926074288</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.00700896831577</v>
+        <v>22.51801486910076</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.00700895045537</v>
+        <v>14.66771798076984</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.00700895732247</v>
+        <v>19.73056774658709</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.00700896770642</v>
+        <v>-1.786231441689807</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.00700899665931</v>
+        <v>11.82963683580807</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.00700898826386</v>
+        <v>16.12023261827209</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.00700899570466</v>
+        <v>21.97737477876661</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.00700896996721</v>
+        <v>39.05674635580804</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.00700897714421</v>
+        <v>43.88439875926329</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.00700898655888</v>
+        <v>3.124592735465082</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.00700901714993</v>
+        <v>32.03291033986029</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.00700900982605</v>
+        <v>51.19709138884097</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.00700901755016</v>
+        <v>54.7893784997814</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.00700897267228</v>
+        <v>35.61542965597286</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.00700897986119</v>
+        <v>42.67778362271961</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.00700898927206</v>
+        <v>1.251375074554325</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.00700901979539</v>
+        <v>31.286762343461</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.00700901260512</v>
+        <v>49.96660365620456</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.00700902032229</v>
+        <v>55.06682408999269</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.00700896070093</v>
+        <v>26.33523845343161</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.0070089677821</v>
+        <v>34.6359087263763</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.00700897869709</v>
+        <v>1.135293649962215</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.00700900825912</v>
+        <v>28.78785198663422</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.00700900008529</v>
+        <v>41.60226260043495</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.00700900770338</v>
+        <v>49.18896345604101</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.00700890497084</v>
+        <v>14.2354589426154</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.00700893096175</v>
+        <v>37.28104860257548</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.00700892497506</v>
+        <v>41.54925793566233</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.00700892886137</v>
+        <v>41.4201411260403</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.00700893301876</v>
+        <v>12.06734084287673</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.00700896024534</v>
+        <v>30.57483263742617</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.00700891745133</v>
+        <v>9.484843376068795</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.00700894477911</v>
+        <v>41.61700151204788</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.00700893997072</v>
+        <v>57.85930770601139</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.00700894402967</v>
+        <v>56.39212837903875</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.00700894863386</v>
+        <v>9.672510143649966</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.00700897735789</v>
+        <v>40.32859828000487</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.00700891974294</v>
+        <v>7.204001936700823</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.00700894698814</v>
+        <v>39.59063663881174</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.00700894236243</v>
+        <v>57.32969005186966</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.00700894641986</v>
+        <v>56.82446116979546</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.00700895098863</v>
+        <v>6.807540367063179</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.00700897962607</v>
+        <v>37.00481110867108</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.00700891256318</v>
+        <v>5.021893371656112</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.00700893899501</v>
+        <v>36.74852505225019</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.00700893349231</v>
+        <v>51.88102310934265</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.00700893748478</v>
+        <v>52.59122496867095</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.00700894155721</v>
+        <v>6.805288165014474</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.00700896928837</v>
+        <v>34.20766282912031</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.00700895286379</v>
+        <v>32.87462487638237</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.00700895909927</v>
+        <v>34.58840391668537</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.00700896871357</v>
+        <v>6.366471504084288</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.00700899660851</v>
+        <v>28.00589513440686</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.00700898874077</v>
+        <v>34.76902012164361</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.00700899553327</v>
+        <v>38.71399242177328</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.0070089710524</v>
+        <v>53.68808246657029</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.00700897756112</v>
+        <v>54.84224706703313</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.00700898630134</v>
+        <v>9.630957434114569</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>29.00700901575924</v>
+        <v>45.77908391853795</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>29.00700900890253</v>
+        <v>65.58784570670289</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>29.00700901594173</v>
+        <v>66.88003195592084</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>29.00700897346868</v>
+        <v>50.03368837807135</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.00700897998775</v>
+        <v>53.21811928472009</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.00700898872314</v>
+        <v>7.303908066528852</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>29.00700901811231</v>
+        <v>44.47411139757595</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>29.00700901137373</v>
+        <v>64.02158184608933</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>29.00700901840493</v>
+        <v>66.59982801150218</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>29.00700896215776</v>
+        <v>41.96247093197444</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>29.00700896857383</v>
+        <v>46.25227067687457</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>29.00700897869189</v>
+        <v>7.442149219319177</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.00700900716885</v>
+        <v>42.55314334413172</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>29.00700899948999</v>
+        <v>57.15110837212728</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>29.00700900642812</v>
+        <v>62.03726152376763</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>29.0070088974953</v>
+        <v>6.221068151476548</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.0070089251125</v>
+        <v>26.85720072534755</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.00700891809366</v>
+        <v>25.92708602957589</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>29.00700892229881</v>
+        <v>26.9377443237741</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>29.00700892713643</v>
+        <v>7.491186017418229</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>29.00700895613702</v>
+        <v>24.11633622052663</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.00700891075914</v>
+        <v>7.01628712186497</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.0070089398344</v>
+        <v>38.50331703500012</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>29.00700893398658</v>
+        <v>49.01454203945453</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>29.00700893837983</v>
+        <v>48.50704004620957</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>29.00700894362637</v>
+        <v>8.270210766976291</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.00700897424869</v>
+        <v>38.77278500412894</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>29.00700891327953</v>
+        <v>5.089591852093143</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.00700894226673</v>
+        <v>36.44273248608405</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>29.00700893661805</v>
+        <v>48.51328166785307</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>29.0070089410125</v>
+        <v>49.25370180804499</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>29.00700894618907</v>
+        <v>4.336764133502658</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.00700897671878</v>
+        <v>34.02684563453062</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>29.00700890568147</v>
+        <v>1.376305998717534</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.00700893376887</v>
+        <v>30.61553073595022</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>29.00700892724667</v>
+        <v>40.70978297551136</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>29.0070089315759</v>
+        <v>43.24752934335861</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.0070089362047</v>
+        <v>1.168031517877296</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.00700896573808</v>
+        <v>26.45612333648901</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>29.00700894765496</v>
+        <v>22.25640126596387</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.00700895431857</v>
+        <v>24.59345005430411</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>29.00700896522673</v>
+        <v>3.486313482269217</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>29.00700899491016</v>
+        <v>21.86127706719635</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.00700898589887</v>
+        <v>22.50697567886702</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>29.00700899321116</v>
+        <v>27.96632113542636</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>29.00700896685823</v>
+        <v>47.23904960547273</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>29.00700897381682</v>
+        <v>48.86901096125561</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>29.00700898381844</v>
+        <v>9.427963597575658</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.00700901519709</v>
+        <v>44.25252589264755</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>29.0070090071894</v>
+        <v>57.38339016008669</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>29.00700901476899</v>
+        <v>60.00762459943599</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>29.00700896948608</v>
+        <v>42.07566206766827</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>29.0070089764581</v>
+        <v>46.07764914885269</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.00700898643906</v>
+        <v>5.286029658318974</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>29.00700901774239</v>
+        <v>40.75410945959423</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>29.00700900986254</v>
+        <v>53.57219820994167</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>29.00700901743682</v>
+        <v>57.88471228409993</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.00700895750707</v>
+        <v>29.77884961645544</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>29.00700896437044</v>
+        <v>35.46076430517515</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>29.00700897580933</v>
+        <v>2.578155172067852</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>29.00700900610548</v>
+        <v>34.23412590847204</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>29.00700899727756</v>
+        <v>42.63716350230976</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>29.00700900475634</v>
+        <v>49.97580237271279</v>
       </c>
     </row>
   </sheetData>
